--- a/data_output/prism_passive/all_passive_out_emg_gl_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.51889237848978398</v>
+        <v>0.51889238591132447</v>
       </c>
       <c r="C2">
-        <v>0.55877486639401519</v>
+        <v>0.55877486172566715</v>
       </c>
       <c r="D2">
-        <v>5.466118669222789</v>
+        <v>5.4661186299189808</v>
       </c>
       <c r="E2">
-        <v>2.0419481018543726</v>
+        <v>2.0419481181785986</v>
       </c>
       <c r="F2">
-        <v>3.8377482447618876</v>
+        <v>3.8377482140274481</v>
       </c>
       <c r="G2">
-        <v>1.4835410889419134</v>
+        <v>1.4835410791582344</v>
       </c>
       <c r="H2">
-        <v>3.6765641909946161</v>
+        <v>3.676564163446236</v>
       </c>
       <c r="I2">
-        <v>0.42457356189480161</v>
+        <v>0.424573558155796</v>
       </c>
       <c r="J2">
-        <v>4.785043074630396</v>
+        <v>4.7850430048184789</v>
       </c>
       <c r="K2">
-        <v>2.5619812587709463</v>
+        <v>2.5619812198053071</v>
       </c>
       <c r="L2">
-        <v>1.9339048782572479</v>
+        <v>1.9339048239120271</v>
       </c>
       <c r="M2">
-        <v>1.8128166483737982</v>
+        <v>1.8128166450284535</v>
       </c>
       <c r="N2">
-        <v>9.6901684945218697E-2</v>
+        <v>9.6901684513605146E-2</v>
       </c>
       <c r="O2">
-        <v>1.3738194440645706</v>
+        <v>1.3738194352208866</v>
       </c>
       <c r="P2">
-        <v>0.26046678803497114</v>
+        <v>0.26046678330610817</v>
       </c>
       <c r="Q2">
-        <v>0.74383114984689147</v>
+        <v>0.74383115029866909</v>
       </c>
       <c r="R2">
-        <v>1.1708474510842271</v>
+        <v>1.1708474476219339</v>
       </c>
       <c r="S2">
-        <v>1.2510120941021188</v>
+        <v>1.2510120785873544</v>
       </c>
       <c r="T2">
-        <v>0.52341900034079114</v>
+        <v>0.52341900241540285</v>
       </c>
       <c r="U2">
-        <v>1.7685498691863342</v>
+        <v>1.7685498538071216</v>
       </c>
       <c r="V2">
-        <v>1.6109130973797892</v>
+        <v>1.6109130879445133</v>
       </c>
       <c r="W2">
-        <v>1.3588918634083826</v>
+        <v>1.3588918552457352</v>
       </c>
       <c r="X2">
-        <v>0.54297188829708853</v>
+        <v>0.54297187703563421</v>
       </c>
       <c r="Y2">
-        <v>0.21380716862336505</v>
+        <v>0.21380716644257106</v>
       </c>
       <c r="AA2">
-        <v>1.5350044119119448</v>
+        <v>1.535004429496162</v>
       </c>
       <c r="AB2">
-        <v>0.42655792246874646</v>
+        <v>0.42655795297681298</v>
       </c>
       <c r="AC2">
-        <v>5.4836848162165541</v>
+        <v>5.4836846664981032</v>
       </c>
       <c r="AD2">
-        <v>0.63743336630608005</v>
+        <v>0.63743335341707374</v>
       </c>
       <c r="AE2">
-        <v>3.4354491240167824</v>
+        <v>3.4354490435820004</v>
       </c>
       <c r="AF2">
-        <v>1.5445153964624294</v>
+        <v>1.5445153850546391</v>
       </c>
       <c r="AG2">
-        <v>2.5792344730476868</v>
+        <v>2.5792344151165927</v>
       </c>
       <c r="AH2">
-        <v>0.27727899675230394</v>
+        <v>0.27727899245189941</v>
       </c>
       <c r="AI2">
-        <v>5.7752794818718236</v>
+        <v>5.7752795421680796</v>
       </c>
       <c r="AJ2">
-        <v>4.8197332936537105</v>
+        <v>4.8197332097341983</v>
       </c>
       <c r="AK2">
-        <v>1.6336232484141213</v>
+        <v>1.6336232603319261</v>
       </c>
       <c r="AL2">
-        <v>1.2244867158598942</v>
+        <v>1.2244867025808419</v>
       </c>
       <c r="AM2">
-        <v>0.1368007861455835</v>
+        <v>0.13680078606637552</v>
       </c>
       <c r="AN2">
-        <v>3.4382121345308776</v>
+        <v>3.4382121402409167</v>
       </c>
       <c r="AO2">
-        <v>0.27489472459225495</v>
+        <v>0.27489472413114135</v>
       </c>
       <c r="AP2">
-        <v>0.70816359284792785</v>
+        <v>0.70816358600988805</v>
       </c>
       <c r="AQ2">
-        <v>0.99020758796312547</v>
+        <v>0.99020758740057668</v>
       </c>
       <c r="AR2">
-        <v>0.53338654816713027</v>
+        <v>0.5333865371023867</v>
       </c>
       <c r="AS2">
-        <v>0.6933857309055107</v>
+        <v>0.69338572184269742</v>
       </c>
       <c r="AT2">
-        <v>1.2902980320415551</v>
+        <v>1.290298037970331</v>
       </c>
       <c r="AU2">
-        <v>1.2524635267446966</v>
+        <v>1.2524635042213199</v>
       </c>
       <c r="AV2">
-        <v>1.3684543108693956</v>
+        <v>1.3684540284331648</v>
       </c>
       <c r="AW2">
-        <v>0.22464485589075797</v>
+        <v>0.22464485629493014</v>
       </c>
       <c r="AX2">
-        <v>0.2248546039204892</v>
+        <v>0.22485460499246659</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.4951881865830368</v>
+        <v>2.4951880792392442</v>
       </c>
       <c r="C3">
-        <v>0.88051584189549847</v>
+        <v>0.88051585556320355</v>
       </c>
       <c r="D3">
-        <v>0.6833489106760966</v>
+        <v>0.68334891121266872</v>
       </c>
       <c r="E3">
-        <v>2.7418663664149556</v>
+        <v>2.7418663529152831</v>
       </c>
       <c r="F3">
-        <v>2.0194728496494863</v>
+        <v>2.0194728431752651</v>
       </c>
       <c r="G3">
-        <v>2.1302257354730392</v>
+        <v>2.1302257485586709</v>
       </c>
       <c r="H3">
-        <v>3.8075977911583045</v>
+        <v>3.8075977606173339</v>
       </c>
       <c r="I3">
-        <v>0.5936720468713792</v>
+        <v>0.5936720449109244</v>
       </c>
       <c r="J3">
-        <v>3.4278676284243539</v>
+        <v>3.4278675793425704</v>
       </c>
       <c r="K3">
-        <v>2.1003986116472158</v>
+        <v>2.1003986101246639</v>
       </c>
       <c r="L3">
-        <v>0.90616509661348699</v>
+        <v>0.9061650923889204</v>
       </c>
       <c r="M3">
-        <v>0.88905416203870613</v>
+        <v>0.88911220784303313</v>
       </c>
       <c r="N3">
-        <v>0.22565198947060053</v>
+        <v>0.2256519887939577</v>
       </c>
       <c r="O3">
-        <v>1.5912582125629451</v>
+        <v>1.5912582131690178</v>
       </c>
       <c r="P3">
-        <v>0.31455263868489231</v>
+        <v>0.31455263329556954</v>
       </c>
       <c r="Q3">
-        <v>0.46492673223044656</v>
+        <v>0.46492672902650456</v>
       </c>
       <c r="R3">
-        <v>0.58061145771497058</v>
+        <v>0.58061146085824544</v>
       </c>
       <c r="S3">
-        <v>0.20450268531337429</v>
+        <v>0.20450268406684485</v>
       </c>
       <c r="T3">
-        <v>0.23794638845535424</v>
+        <v>0.23794638954322339</v>
       </c>
       <c r="U3">
-        <v>2.2465508429180701</v>
+        <v>2.2465508373893419</v>
       </c>
       <c r="V3">
-        <v>0.84158333655533557</v>
+        <v>0.84158333803856089</v>
       </c>
       <c r="W3">
-        <v>0.11870279645338741</v>
+        <v>0.11870279177193144</v>
       </c>
       <c r="X3">
-        <v>0.37924429519101605</v>
+        <v>0.3792442888392894</v>
       </c>
       <c r="Y3">
-        <v>0.56665503930317684</v>
+        <v>0.56665503616648549</v>
       </c>
       <c r="AA3">
-        <v>0.92019544586370761</v>
+        <v>0.92019542869871229</v>
       </c>
       <c r="AB3">
-        <v>5.7155145175840456</v>
+        <v>5.7155144907876734</v>
       </c>
       <c r="AC3">
-        <v>1.8252920599442457</v>
+        <v>1.8252920698050226</v>
       </c>
       <c r="AD3">
-        <v>1.4087805831181366</v>
+        <v>1.4087805657583194</v>
       </c>
       <c r="AE3">
-        <v>4.0744076262112419</v>
+        <v>4.0744075564725168</v>
       </c>
       <c r="AF3">
-        <v>0.89701395436170284</v>
+        <v>0.89701395250629068</v>
       </c>
       <c r="AG3">
-        <v>1.575774101793751</v>
+        <v>1.5757740962657132</v>
       </c>
       <c r="AH3">
-        <v>0.68770377845382247</v>
+        <v>0.68770377978457398</v>
       </c>
       <c r="AI3">
-        <v>3.237138188060797</v>
+        <v>3.2371381939111714</v>
       </c>
       <c r="AJ3">
-        <v>3.3081339184105154</v>
+        <v>3.3081339652211574</v>
       </c>
       <c r="AK3">
-        <v>0.50023834418656132</v>
+        <v>0.50023833335813339</v>
       </c>
       <c r="AL3">
-        <v>0.78384798380790077</v>
+        <v>0.78384797228295167</v>
       </c>
       <c r="AM3">
-        <v>0.36366467031485128</v>
+        <v>0.36366467886312426</v>
       </c>
       <c r="AN3">
-        <v>2.5573480702738944</v>
+        <v>2.5573480464496194</v>
       </c>
       <c r="AO3">
-        <v>0.36216057596672419</v>
+        <v>0.36216057383709366</v>
       </c>
       <c r="AP3">
-        <v>0.20924353259603645</v>
+        <v>0.20924353298414369</v>
       </c>
       <c r="AQ3">
-        <v>0.26622331216656953</v>
+        <v>0.26622331235633245</v>
       </c>
       <c r="AR3">
-        <v>0.24990921118622875</v>
+        <v>0.24990920013353018</v>
       </c>
       <c r="AS3">
-        <v>0.41655459345444451</v>
+        <v>0.41655458825874148</v>
       </c>
       <c r="AT3">
-        <v>1.1014116395147853</v>
+        <v>1.1014116410724184</v>
       </c>
       <c r="AU3">
-        <v>1.2926651426681126</v>
+        <v>1.2926651327155809</v>
       </c>
       <c r="AV3">
-        <v>0.48090136559273511</v>
+        <v>0.48090136071444556</v>
       </c>
       <c r="AW3">
-        <v>0.71260775034762669</v>
+        <v>0.71260776951957205</v>
       </c>
       <c r="AX3">
-        <v>1.0137175206185305</v>
+        <v>1.0137175103864011</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gl_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.51889238591132447</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.55877486172566715</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.4661186299189808</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.0419481181785986</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.8377482140274481</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.4835410791582344</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.676564163446236</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.424573558155796</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.7850430048184789</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.5619812198053071</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.9339048239120271</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.8128166450284535</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.6901684513605146E-2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.3738194352208866</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.26046678330610817</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.74383115029866909</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.1708474476219339</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1.2510120785873544</v>
@@ -585,55 +474,55 @@
         <v>0.21380716644257106</v>
       </c>
       <c r="AA2">
-        <v>1.535004429496162</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.42655795297681298</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.4836846664981032</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.63743335341707374</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>3.4354490435820004</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.5445153850546391</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.5792344151165927</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.27727899245189941</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>5.7752795421680796</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4.8197332097341983</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.6336232603319261</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.2244867025808419</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.13680078606637552</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.4382121402409167</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.27489472413114135</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.70816358600988805</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.99020758740057668</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0.5333865371023867</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.22485460499246659</v>
       </c>
+      <c r="AY2">
+        <v>0.75892810580631997</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>2.4951880792392442</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.88051585556320355</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.68334891121266872</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.7418663529152831</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.0194728431752651</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.1302257485586709</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.8075977606173339</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5936720449109244</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.4278675793425704</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.1003986101246639</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9061650923889204</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.88911220784303313</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.2256519887939577</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.5912582131690178</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.31455263329556954</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.46492672902650456</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.58061146085824544</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0.20450268406684485</v>
@@ -734,55 +623,55 @@
         <v>0.56665503616648549</v>
       </c>
       <c r="AA3">
-        <v>0.92019542869871229</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>5.7155144907876734</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.8252920698050226</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.4087805657583194</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>4.0744075564725168</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.89701395250629068</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.5757740962657132</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.68770377978457398</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.2371381939111714</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.3081339652211574</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.50023833335813339</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.78384797228295167</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.36366467886312426</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.5573480464496194</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.36216057383709366</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.20924353298414369</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.26622331235633245</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0.24990920013353018</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>1.0137175103864011</v>
+      </c>
+      <c r="AY3">
+        <v>0.83037056874333126</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gl_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.51889237848978398</v>
+        <v>0.95545643785773215</v>
       </c>
       <c r="C2">
-        <v>0.55877486639401519</v>
+        <v>1.1708474476219339</v>
       </c>
       <c r="D2">
-        <v>5.3568095709455559</v>
+        <v>3.4382121402409167</v>
       </c>
       <c r="E2">
-        <v>2.0419481018543726</v>
+        <v>0.99020758740057668</v>
       </c>
       <c r="F2">
         <v>3.8377482447618876</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.4951881865830368</v>
+        <v>1.5912582131690178</v>
       </c>
       <c r="C3">
-        <v>0.88051584189549847</v>
+        <v>0.58061146085824544</v>
       </c>
       <c r="D3">
-        <v>0.6833489106760966</v>
+        <v>2.5573480464496194</v>
       </c>
       <c r="E3">
-        <v>2.7418663664149556</v>
+        <v>0.21395928295942285</v>
       </c>
       <c r="F3">
         <v>2.0194728496494863</v>

--- a/data_output/prism_passive/all_passive_out_emg_gl_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.51889237848978398</v>
-      </c>
       <c r="C2">
-        <v>0.55877486639401519</v>
+        <v>0.95545643785773215</v>
       </c>
       <c r="D2">
-        <v>5.3568095709455559</v>
+        <v>0.13680078606637552</v>
       </c>
       <c r="E2">
-        <v>2.0419481018543726</v>
+        <v>3.4382121402409167</v>
       </c>
       <c r="F2">
         <v>3.8377482447618876</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.4951881865830368</v>
+        <v>0.2256519887939577</v>
       </c>
       <c r="C3">
-        <v>0.88051584189549847</v>
+        <v>1.5912582131690178</v>
       </c>
       <c r="D3">
-        <v>0.6833489106760966</v>
+        <v>0.36366467886312426</v>
       </c>
       <c r="E3">
-        <v>2.7418663664149556</v>
+        <v>2.5573480464496194</v>
       </c>
       <c r="F3">
         <v>2.0194728496494863</v>

--- a/data_output/prism_passive/all_passive_out_emg_gl_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.51889238591132447</v>
+      </c>
       <c r="C2">
+        <v>0.55877486172566715</v>
+      </c>
+      <c r="D2">
+        <v>5.3568094840667673</v>
+      </c>
+      <c r="E2">
+        <v>2.0419481181785986</v>
+      </c>
+      <c r="F2">
+        <v>3.8377482140274481</v>
+      </c>
+      <c r="G2">
+        <v>1.4835410791582344</v>
+      </c>
+      <c r="H2">
+        <v>3.676564163446236</v>
+      </c>
+      <c r="I2">
+        <v>0.424573558155796</v>
+      </c>
+      <c r="J2">
+        <v>4.7850430048184789</v>
+      </c>
+      <c r="K2">
+        <v>2.5619812198053071</v>
+      </c>
+      <c r="L2">
+        <v>1.9339048239120271</v>
+      </c>
+      <c r="M2">
+        <v>1.8128166450284535</v>
+      </c>
+      <c r="O2">
         <v>0.95545643785773215</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.26046678330610817</v>
+      </c>
+      <c r="Q2">
+        <v>0.74383115029866909</v>
+      </c>
+      <c r="R2">
+        <v>1.1708474476219339</v>
+      </c>
+      <c r="S2">
+        <v>1.2510120785873544</v>
+      </c>
+      <c r="T2">
+        <v>0.42994318401745557</v>
+      </c>
+      <c r="U2">
+        <v>1.7685498538071216</v>
+      </c>
+      <c r="V2">
+        <v>1.6109130879445133</v>
+      </c>
+      <c r="W2">
+        <v>1.3588918552457352</v>
+      </c>
+      <c r="X2">
+        <v>0.54297187703563421</v>
+      </c>
+      <c r="Y2">
+        <v>0.21079410409670785</v>
+      </c>
+      <c r="AA2">
+        <v>1.535004429496162</v>
+      </c>
+      <c r="AB2">
+        <v>0.4265579529768474</v>
+      </c>
+      <c r="AC2">
+        <v>5.4836846664981032</v>
+      </c>
+      <c r="AD2">
+        <v>0.63743335341707374</v>
+      </c>
+      <c r="AE2">
+        <v>3.4354490435820004</v>
+      </c>
+      <c r="AF2">
+        <v>1.5445153850546391</v>
+      </c>
+      <c r="AG2">
+        <v>2.5792344151165927</v>
+      </c>
+      <c r="AH2">
+        <v>0.5342131976172978</v>
+      </c>
+      <c r="AI2">
+        <v>5.7752795421680796</v>
+      </c>
+      <c r="AJ2">
+        <v>4.8197332097341983</v>
+      </c>
+      <c r="AK2">
+        <v>1.6336232603319261</v>
+      </c>
+      <c r="AL2">
+        <v>1.2244867025808419</v>
+      </c>
+      <c r="AM2">
         <v>0.13680078606637552</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.4382121402409167</v>
       </c>
-      <c r="F2">
-        <v>3.8377482447618876</v>
-      </c>
-      <c r="G2">
-        <v>1.4835410889419134</v>
-      </c>
-      <c r="H2">
-        <v>3.6765641909946161</v>
-      </c>
-      <c r="I2">
-        <v>0.42457356189480161</v>
-      </c>
-      <c r="J2">
-        <v>4.785043074630396</v>
-      </c>
-      <c r="K2">
-        <v>2.5619812587709463</v>
-      </c>
-      <c r="L2">
-        <v>1.9339048782572479</v>
-      </c>
-      <c r="M2">
-        <v>1.8128166483737982</v>
-      </c>
-      <c r="O2">
-        <v>0.95545645665573331</v>
-      </c>
-      <c r="P2">
-        <v>0.26046678803497114</v>
-      </c>
-      <c r="Q2">
-        <v>0.74383114984689147</v>
-      </c>
-      <c r="R2">
-        <v>1.1708474510842271</v>
-      </c>
-      <c r="S2">
-        <v>1.2510120941021188</v>
-      </c>
-      <c r="T2">
-        <v>0.42994318471251408</v>
-      </c>
-      <c r="U2">
-        <v>1.7685498691863342</v>
-      </c>
-      <c r="V2">
-        <v>1.6109130973797892</v>
-      </c>
-      <c r="W2">
-        <v>1.3588918634083826</v>
-      </c>
-      <c r="X2">
-        <v>0.54297188829708853</v>
-      </c>
-      <c r="Y2">
-        <v>0.21079410541229385</v>
-      </c>
-      <c r="AA2">
-        <v>1.5350044119119448</v>
-      </c>
-      <c r="AB2">
-        <v>0.42655792246876673</v>
-      </c>
-      <c r="AC2">
-        <v>5.4836848162165541</v>
-      </c>
-      <c r="AD2">
-        <v>0.63743336630608005</v>
-      </c>
-      <c r="AE2">
-        <v>3.4354491240167824</v>
-      </c>
-      <c r="AF2">
-        <v>1.5445153964624294</v>
-      </c>
-      <c r="AG2">
-        <v>2.5792344730476868</v>
-      </c>
-      <c r="AH2">
-        <v>0.53421320444740461</v>
-      </c>
-      <c r="AI2">
-        <v>5.7752794818718236</v>
-      </c>
-      <c r="AJ2">
-        <v>4.8197332936537105</v>
-      </c>
-      <c r="AK2">
-        <v>1.6336232484141213</v>
-      </c>
-      <c r="AL2">
-        <v>1.2244867158598942</v>
-      </c>
-      <c r="AM2">
-        <v>0.1368007861455835</v>
-      </c>
-      <c r="AN2">
-        <v>3.4382121345308776</v>
-      </c>
       <c r="AO2">
-        <v>0.27489472459225495</v>
+        <v>0.27489472413114135</v>
       </c>
       <c r="AP2">
-        <v>0.61896121700220275</v>
+        <v>0.61896121331074083</v>
       </c>
       <c r="AQ2">
-        <v>0.99020758796312547</v>
+        <v>0.99020758740057668</v>
       </c>
       <c r="AR2">
-        <v>0.53338654816713027</v>
+        <v>0.5333865371023867</v>
       </c>
       <c r="AS2">
-        <v>0.6933857309055107</v>
+        <v>0.69338572184269742</v>
       </c>
       <c r="AT2">
-        <v>1.2902980320415551</v>
+        <v>1.290298037970331</v>
       </c>
       <c r="AU2">
-        <v>1.2524635267446966</v>
+        <v>1.2524635042213199</v>
       </c>
       <c r="AV2">
-        <v>1.3684543108693956</v>
+        <v>1.3684540284331648</v>
       </c>
       <c r="AW2">
-        <v>0.22464485589075797</v>
+        <v>0.22464485629493014</v>
       </c>
       <c r="AX2">
-        <v>0.2248546039204892</v>
+        <v>0.22485460499246659</v>
       </c>
       <c r="AY2">
-        <v>0.75892812811725141</v>
+        <v>0.75892810580631997</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2.4951880792392442</v>
+      </c>
+      <c r="C3">
+        <v>0.88051585556320355</v>
+      </c>
+      <c r="D3">
+        <v>0.68334891121266872</v>
+      </c>
+      <c r="E3">
+        <v>2.7418663529152831</v>
+      </c>
+      <c r="F3">
+        <v>2.0194728431752651</v>
+      </c>
+      <c r="G3">
+        <v>2.1302257485586709</v>
+      </c>
+      <c r="H3">
+        <v>3.8075977606173339</v>
+      </c>
+      <c r="I3">
+        <v>0.82513176169502156</v>
+      </c>
+      <c r="J3">
+        <v>3.4278675793425704</v>
+      </c>
+      <c r="K3">
+        <v>2.1003986101246639</v>
+      </c>
+      <c r="L3">
+        <v>0.9061650923889204</v>
+      </c>
+      <c r="M3">
+        <v>0.88911220784303313</v>
+      </c>
+      <c r="N3">
         <v>0.2256519887939577</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>1.5912582131690178</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.31455263329556954</v>
+      </c>
+      <c r="Q3">
+        <v>0.46492672902650456</v>
+      </c>
+      <c r="R3">
+        <v>0.58061146085824544</v>
+      </c>
+      <c r="S3">
+        <v>0.22753892964958849</v>
+      </c>
+      <c r="T3">
+        <v>0.24158376476142704</v>
+      </c>
+      <c r="U3">
+        <v>2.2465508373893419</v>
+      </c>
+      <c r="V3">
+        <v>0.84158333803856089</v>
+      </c>
+      <c r="W3">
+        <v>0.10534483973180593</v>
+      </c>
+      <c r="X3">
+        <v>0.3792442888392894</v>
+      </c>
+      <c r="Y3">
+        <v>0.56665503616648549</v>
+      </c>
+      <c r="AA3">
+        <v>0.92019542869871229</v>
+      </c>
+      <c r="AB3">
+        <v>5.7155144907876734</v>
+      </c>
+      <c r="AC3">
+        <v>2.0161744782327449</v>
+      </c>
+      <c r="AD3">
+        <v>1.4087805657583194</v>
+      </c>
+      <c r="AE3">
+        <v>4.0744075564725168</v>
+      </c>
+      <c r="AF3">
+        <v>0.89701395250629068</v>
+      </c>
+      <c r="AG3">
+        <v>1.5758389807945246</v>
+      </c>
+      <c r="AH3">
+        <v>0.37883580514082327</v>
+      </c>
+      <c r="AI3">
+        <v>3.2371381939111714</v>
+      </c>
+      <c r="AJ3">
+        <v>3.3081339652211574</v>
+      </c>
+      <c r="AK3">
+        <v>0.50023833335813339</v>
+      </c>
+      <c r="AL3">
+        <v>0.78384797228295167</v>
+      </c>
+      <c r="AM3">
         <v>0.36366467886312426</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>2.5573480464496194</v>
       </c>
-      <c r="F3">
-        <v>2.0194728496494863</v>
-      </c>
-      <c r="G3">
-        <v>2.1302257354730392</v>
-      </c>
-      <c r="H3">
-        <v>3.8075977911583045</v>
-      </c>
-      <c r="I3">
-        <v>0.82513176441037628</v>
-      </c>
-      <c r="J3">
-        <v>3.4278676284243539</v>
-      </c>
-      <c r="K3">
-        <v>2.1003986116472158</v>
-      </c>
-      <c r="L3">
-        <v>0.90616509661348699</v>
-      </c>
-      <c r="M3">
-        <v>0.88905416203870613</v>
-      </c>
-      <c r="N3">
-        <v>0.22565198947060053</v>
-      </c>
-      <c r="O3">
-        <v>1.5912582125629451</v>
-      </c>
-      <c r="P3">
-        <v>0.31455263868489231</v>
-      </c>
-      <c r="Q3">
-        <v>0.46492673223044656</v>
-      </c>
-      <c r="R3">
-        <v>0.58061145771497058</v>
-      </c>
-      <c r="S3">
-        <v>0.22753893160804406</v>
-      </c>
-      <c r="T3">
-        <v>0.24158376339088719</v>
-      </c>
-      <c r="U3">
-        <v>2.2465508429180701</v>
-      </c>
-      <c r="V3">
-        <v>0.84158333655533557</v>
-      </c>
-      <c r="W3">
-        <v>0.10534484277869136</v>
-      </c>
-      <c r="X3">
-        <v>0.37924429519101605</v>
-      </c>
-      <c r="Y3">
-        <v>0.56665503930317684</v>
-      </c>
-      <c r="AA3">
-        <v>0.92019544586370761</v>
-      </c>
-      <c r="AB3">
-        <v>5.7155145175840456</v>
-      </c>
-      <c r="AC3">
-        <v>2.0161744479728618</v>
-      </c>
-      <c r="AD3">
-        <v>1.4087805831181366</v>
-      </c>
-      <c r="AE3">
-        <v>4.0744076262112419</v>
-      </c>
-      <c r="AF3">
-        <v>0.89701395436170284</v>
-      </c>
-      <c r="AG3">
-        <v>1.5758389862750795</v>
-      </c>
-      <c r="AH3">
-        <v>0.37883580782345672</v>
-      </c>
-      <c r="AI3">
-        <v>3.237138188060797</v>
-      </c>
-      <c r="AJ3">
-        <v>3.3081339184105154</v>
-      </c>
-      <c r="AK3">
-        <v>0.50023834418656132</v>
-      </c>
-      <c r="AL3">
-        <v>0.78384798380790077</v>
-      </c>
-      <c r="AM3">
-        <v>0.36366467031485128</v>
-      </c>
-      <c r="AN3">
-        <v>2.5573480702738944</v>
-      </c>
       <c r="AO3">
-        <v>0.36216057596672419</v>
+        <v>0.36216057383709366</v>
       </c>
       <c r="AP3">
-        <v>0.16068051500696584</v>
+        <v>0.16068051432642791</v>
       </c>
       <c r="AQ3">
-        <v>0.21395928466774777</v>
+        <v>0.21395928295942285</v>
       </c>
       <c r="AR3">
-        <v>0.18796473333949845</v>
+        <v>0.18796473084434592</v>
       </c>
       <c r="AS3">
-        <v>0.41655459345444451</v>
+        <v>0.41655458825874148</v>
       </c>
       <c r="AT3">
-        <v>1.1014116395147853</v>
+        <v>1.1014116410724184</v>
       </c>
       <c r="AU3">
-        <v>1.2926651426681126</v>
+        <v>1.2926651327155809</v>
       </c>
       <c r="AV3">
-        <v>0.48090136559273511</v>
+        <v>0.48090136071444556</v>
       </c>
       <c r="AW3">
-        <v>0.71260775034762669</v>
+        <v>0.71260776951957205</v>
       </c>
       <c r="AX3">
-        <v>1.0137175206185305</v>
+        <v>1.0137175103864011</v>
       </c>
       <c r="AY3">
-        <v>0.83037058159652355</v>
+        <v>0.83037056874333126</v>
       </c>
     </row>
   </sheetData>
